--- a/biology/Histoire de la zoologie et de la botanique/Yoshimaro_Yamashina/Yoshimaro_Yamashina.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Yoshimaro_Yamashina/Yoshimaro_Yamashina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yoshimaro Yamashina (山階 芳麿, Yamashina Yoshimaro?), né le 5 juillet 1900 – mort le 28 janvier 1989, est un ornithologue japonais, fondateur de l'Institut d'ornithologie de Yamashina.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Yamashina naît à Kōjimachi, Tokyo, deuxième fils du prince Kikumaro Yamashina. Dès son jeune âge il s'intéresse aux oiseaux qui se trouvent en abondance sur le vaste domaine Yamashina à Tokyo Il reçoit un canard mandarin empaillé comme cadeau pour son 6e anniversaire.
 Yamashina fréquente l'école des pairs Gakushuin et sur ordre de l'empereur Meiji intègre l'Armée impériale japonaise. Il est diplômé de la 33e promotion de l'Académie de l'armée impériale japonaise où il s'est spécialisé en artillerie.
@@ -548,7 +562,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Birds of the Shizuoka Prefecture (1924)
 How to Breed Fancy Birds (1926)
